--- a/Test Data/Verify Voltage Drop Calculation on adding or deleting devices.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on adding or deleting devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B605BF-BE32-4638-B3AC-FA1AF4BDF412}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D64E6-7E86-42AA-877E-49EB340426FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9024" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>0.30</t>
+  </si>
+  <si>
+    <t>Volt Drop (V)</t>
+  </si>
+  <si>
+    <t>Volt Drop (worst case)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volt drop Loading Details Name </t>
+  </si>
+  <si>
+    <t>Volt drop worst case Loading Details Name</t>
   </si>
 </sst>
 </file>
@@ -221,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -230,10 +242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -251,6 +259,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,98 +596,108 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10" t="s">
+      <c r="E4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -697,6 +718,12 @@
       </c>
       <c r="G6" s="1">
         <v>0.47</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -715,11 +742,17 @@
       <c r="E7" s="1">
         <v>300</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>0.55000000000000004</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -743,6 +776,12 @@
       </c>
       <c r="G8" s="1">
         <v>0.61</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +798,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,65 +810,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>3</v>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>0.53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -844,5 +883,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Verify Voltage Drop Calculation on adding or deleting devices.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on adding or deleting devices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D64E6-7E86-42AA-877E-49EB340426FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB17FD4-1F74-4F6E-9339-556BCAF36342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>Verify Voltage Drop Calculation on adding or deleting devices</t>
   </si>
   <si>
-    <t>NGC -1287</t>
-  </si>
-  <si>
     <t>verifyVoltageDropCalculation,verifyVoltageDropPercentage</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Volt drop worst case Loading Details Name</t>
+  </si>
+  <si>
+    <t>NGC -1287 and NGC-491/TC-126</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="8" t="s">
@@ -633,7 +633,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>2</v>
@@ -642,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="8" t="s">
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
@@ -691,10 +691,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -720,10 +720,10 @@
         <v>0.47</v>
       </c>
       <c r="H6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -743,16 +743,16 @@
         <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="H7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -772,16 +772,16 @@
         <v>310.60000000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="G8" s="1">
         <v>0.61</v>
       </c>
       <c r="H8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,16 +855,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" s="1">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test Data/Verify Voltage Drop Calculation on adding or deleting devices.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on adding or deleting devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB17FD4-1F74-4F6E-9339-556BCAF36342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A026E3-0F54-4498-98CB-FF5B58870209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -121,9 +121,6 @@
     <t>verifyVoltageDropCalculation,verifyVoltageDropPercentage</t>
   </si>
   <si>
-    <t>0.30</t>
-  </si>
-  <si>
     <t>Volt Drop (V)</t>
   </si>
   <si>
@@ -136,7 +133,28 @@
     <t>Volt drop worst case Loading Details Name</t>
   </si>
   <si>
-    <t>NGC -1287 and NGC-491/TC-126</t>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
+  </si>
+  <si>
+    <t>DCUnit</t>
+  </si>
+  <si>
+    <t>NGC-491/T375 OR TC-126</t>
   </si>
 </sst>
 </file>
@@ -167,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +210,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -229,11 +253,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -254,7 +291,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -262,6 +298,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,28 +636,35 @@
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="2"/>
@@ -627,13 +672,22 @@
         <v>21</v>
       </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="17">
+        <v>2</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>34</v>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>2</v>
@@ -641,34 +695,52 @@
       <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>30</v>
+      <c r="E3" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15" t="s">
+      <c r="J3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="17">
+        <v>3</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>31</v>
+      <c r="E4" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="17">
+        <v>4</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -691,13 +763,16 @@
         <v>3</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -711,22 +786,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F6" s="1">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G6" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H6" s="19" t="s">
+        <v>0.41</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -740,22 +815,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>300</v>
-      </c>
-      <c r="F7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -769,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>310.60000000000002</v>
+        <v>302</v>
       </c>
       <c r="F8" s="1">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="G8" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="H8" s="19" t="s">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -795,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F314061-75BE-4623-93F7-3EBA86CADE07}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,72 +882,111 @@
     <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="J1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="21"/>
+      <c r="J2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="17">
+        <v>2</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="2"/>
       <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="17">
+        <v>3</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="17">
+        <v>4</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J5" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" s="1">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>

--- a/Test Data/Verify Voltage Drop Calculation on adding or deleting devices.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on adding or deleting devices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A026E3-0F54-4498-98CB-FF5B58870209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1BE47E-6450-4A6C-B48F-71AAD2729CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>NGC-491/T375 OR TC-126</t>
+  </si>
+  <si>
+    <t>LI800 - 1</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,25 +806,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>291</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.28000000000000003</v>
+        <v>289</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.27</v>
       </c>
       <c r="G7" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>29</v>
@@ -832,13 +835,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>0</v>
